--- a/Data/Puntos riesgo país.xlsx
+++ b/Data/Puntos riesgo país.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estudusfqedu-my.sharepoint.com/personal/esoria_estud_usfq_edu_ec/Documents/Escritorio/Quantificador/RiesgopaisSoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{9C9838B8-88AE-47BC-8456-EBB70C85706E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{055DA349-21CC-48DB-9527-E566ECB0B36C}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{9C9838B8-88AE-47BC-8456-EBB70C85706E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA464B89-C21B-49ED-8F2C-E890BDA33212}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AC08FCD3-5F89-4E94-8ACC-8D65B117AB27}"/>
   </bookViews>
@@ -130,10 +130,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -149,10 +149,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -454,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AC7F0A-92D3-445F-85C6-0A8224A8026B}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="53" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -466,11 +462,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -1054,7 +1050,7 @@
       <c r="C54" s="4">
         <v>1892</v>
       </c>
-      <c r="F54" s="9"/>
+      <c r="F54" s="8"/>
     </row>
     <row r="55" spans="1:6" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="6">
@@ -1066,7 +1062,7 @@
       <c r="C55" s="4">
         <v>1780</v>
       </c>
-      <c r="F55" s="9"/>
+      <c r="F55" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Data/Puntos riesgo país.xlsx
+++ b/Data/Puntos riesgo país.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estudusfqedu-my.sharepoint.com/personal/esoria_estud_usfq_edu_ec/Documents/Escritorio/Quantificador/RiesgopaisSoria/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estudusfqedu-my.sharepoint.com/personal/esoria_estud_usfq_edu_ec/Documents/Escritorio/Quantificador/RiesgopaisSoria/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{9C9838B8-88AE-47BC-8456-EBB70C85706E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA464B89-C21B-49ED-8F2C-E890BDA33212}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{9C9838B8-88AE-47BC-8456-EBB70C85706E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F50FA094-A0F5-4C5D-8ED2-B8AF199CE5B4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AC08FCD3-5F89-4E94-8ACC-8D65B117AB27}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>A fin de período</t>
   </si>
@@ -46,24 +46,13 @@
   <si>
     <t>Periodo</t>
   </si>
-  <si>
-    <t>Puntos del riesgo país</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -111,29 +100,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -149,6 +135,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -448,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AC7F0A-92D3-445F-85C6-0A8224A8026B}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="53" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:B1048576"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -461,613 +451,603 @@
     <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
+      <c r="A2" s="6">
+        <v>43466</v>
+      </c>
+      <c r="B2" s="4">
+        <v>690</v>
+      </c>
+      <c r="C2" s="4">
+        <v>712</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B3" s="4">
-        <v>690</v>
+        <v>584</v>
       </c>
       <c r="C3" s="4">
-        <v>712</v>
+        <v>658</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B4" s="4">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="C4" s="4">
-        <v>658</v>
+        <v>612</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B5" s="4">
-        <v>592</v>
+        <v>560</v>
       </c>
       <c r="C5" s="4">
-        <v>612</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B6" s="4">
-        <v>560</v>
+        <v>619</v>
       </c>
       <c r="C6" s="4">
-        <v>552</v>
+        <v>573</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B7" s="4">
-        <v>619</v>
+        <v>580</v>
       </c>
       <c r="C7" s="4">
-        <v>573</v>
+        <v>590</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B8" s="4">
-        <v>580</v>
+        <v>603</v>
       </c>
       <c r="C8" s="4">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B9" s="4">
-        <v>603</v>
+        <v>705</v>
       </c>
       <c r="C9" s="4">
-        <v>578</v>
+        <v>702</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B10" s="4">
-        <v>705</v>
+        <v>677</v>
       </c>
       <c r="C10" s="4">
-        <v>702</v>
+        <v>648</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B11" s="4">
-        <v>677</v>
+        <v>789</v>
       </c>
       <c r="C11" s="4">
-        <v>648</v>
+        <v>763</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B12" s="4">
-        <v>789</v>
+        <v>1146</v>
       </c>
       <c r="C12" s="4">
-        <v>763</v>
+        <v>979</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B13" s="4">
-        <v>1146</v>
+        <v>826</v>
       </c>
       <c r="C13" s="4">
-        <v>979</v>
+        <v>938</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B14" s="4">
-        <v>826</v>
+        <v>1018</v>
       </c>
       <c r="C14" s="4">
-        <v>938</v>
+        <v>859</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B15" s="4">
-        <v>1018</v>
+        <v>1466</v>
       </c>
       <c r="C15" s="4">
-        <v>859</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B16" s="4">
-        <v>1466</v>
+        <v>4553</v>
       </c>
       <c r="C16" s="4">
-        <v>1180</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B17" s="4">
-        <v>4553</v>
+        <v>5129</v>
       </c>
       <c r="C17" s="4">
-        <v>3580</v>
+        <v>5033</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B18" s="4">
-        <v>5129</v>
+        <v>3907</v>
       </c>
       <c r="C18" s="4">
-        <v>5033</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B19" s="4">
-        <v>3907</v>
+        <v>3373</v>
       </c>
       <c r="C19" s="4">
-        <v>4305</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B20" s="4">
-        <v>3373</v>
+        <v>2755</v>
       </c>
       <c r="C20" s="4">
-        <v>3287</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B21" s="4">
-        <v>2755</v>
+        <v>2813</v>
       </c>
       <c r="C21" s="4">
-        <v>2862</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B22" s="4">
-        <v>2813</v>
+        <v>1015</v>
       </c>
       <c r="C22" s="4">
-        <v>2780</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B23" s="4">
-        <v>1015</v>
+        <v>1029</v>
       </c>
       <c r="C23" s="4">
-        <v>1413</v>
+        <v>983</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B24" s="4">
-        <v>1029</v>
+        <v>1065</v>
       </c>
       <c r="C24" s="4">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B25" s="4">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="C25" s="4">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B26" s="4">
-        <v>1062</v>
+        <v>1273</v>
       </c>
       <c r="C26" s="4">
-        <v>1041</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B27" s="4">
-        <v>1273</v>
+        <v>1226</v>
       </c>
       <c r="C27" s="4">
-        <v>1182</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B28" s="4">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="C28" s="4">
-        <v>1202</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B29" s="4">
-        <v>1201</v>
+        <v>764</v>
       </c>
       <c r="C29" s="4">
-        <v>1264</v>
+        <v>937</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B30" s="4">
-        <v>764</v>
+        <v>730</v>
       </c>
       <c r="C30" s="4">
-        <v>937</v>
+        <v>735</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B31" s="4">
-        <v>730</v>
+        <v>776</v>
       </c>
       <c r="C31" s="4">
-        <v>735</v>
+        <v>757</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B32" s="4">
-        <v>776</v>
+        <v>790</v>
       </c>
       <c r="C32" s="4">
-        <v>757</v>
+        <v>777</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B33" s="4">
-        <v>790</v>
+        <v>751</v>
       </c>
       <c r="C33" s="4">
-        <v>777</v>
+        <v>793</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B34" s="4">
-        <v>751</v>
+        <v>835</v>
       </c>
       <c r="C34" s="4">
-        <v>793</v>
+        <v>797</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B35" s="4">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="C35" s="4">
-        <v>797</v>
+        <v>825</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B36" s="4">
-        <v>847</v>
+        <v>891</v>
       </c>
       <c r="C36" s="4">
-        <v>825</v>
+        <v>834</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B37" s="4">
-        <v>891</v>
+        <v>869</v>
       </c>
       <c r="C37" s="4">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B38" s="4">
-        <v>869</v>
+        <v>768</v>
       </c>
       <c r="C38" s="4">
-        <v>867</v>
+        <v>818</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B39" s="4">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="C39" s="4">
-        <v>818</v>
+        <v>761</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B40" s="4">
-        <v>755</v>
+        <v>810</v>
       </c>
       <c r="C40" s="4">
-        <v>761</v>
+        <v>792</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B41" s="4">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="C41" s="4">
-        <v>792</v>
+        <v>803</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B42" s="4">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="C42" s="4">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B43" s="4">
-        <v>802</v>
+        <v>1165</v>
       </c>
       <c r="C43" s="4">
-        <v>805</v>
+        <v>960</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B44" s="4">
-        <v>1165</v>
+        <v>1336</v>
       </c>
       <c r="C44" s="4">
-        <v>960</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="6">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B45" s="4">
-        <v>1336</v>
+        <v>1550</v>
       </c>
       <c r="C45" s="4">
-        <v>1344</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="6">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B46" s="4">
-        <v>1550</v>
+        <v>1753</v>
       </c>
       <c r="C46" s="4">
-        <v>1427</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="6">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B47" s="4">
-        <v>1753</v>
+        <v>1570</v>
       </c>
       <c r="C47" s="4">
-        <v>1540</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="6">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B48" s="4">
-        <v>1570</v>
+        <v>1333</v>
       </c>
       <c r="C48" s="4">
-        <v>1682</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="6">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B49" s="4">
-        <v>1333</v>
+        <v>1250</v>
       </c>
       <c r="C49" s="4">
-        <v>1413</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="6">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B50" s="4">
-        <v>1250</v>
+        <v>1216</v>
       </c>
       <c r="C50" s="4">
-        <v>1294</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="6">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B51" s="4">
-        <v>1216</v>
+        <v>1765</v>
       </c>
       <c r="C51" s="4">
-        <v>1130</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="6">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B52" s="4">
-        <v>1765</v>
+        <v>1917</v>
       </c>
       <c r="C52" s="4">
-        <v>1505</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="6">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B53" s="4">
-        <v>1917</v>
+        <v>1757</v>
       </c>
       <c r="C53" s="4">
-        <v>1796</v>
-      </c>
+        <v>1892</v>
+      </c>
+      <c r="F53" s="8"/>
     </row>
     <row r="54" spans="1:6" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="6">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B54" s="4">
-        <v>1757</v>
+        <v>1911</v>
       </c>
       <c r="C54" s="4">
-        <v>1892</v>
+        <v>1780</v>
       </c>
       <c r="F54" s="8"/>
     </row>
-    <row r="55" spans="1:6" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="6">
-        <v>45047</v>
-      </c>
-      <c r="B55" s="4">
-        <v>1911</v>
-      </c>
-      <c r="C55" s="4">
-        <v>1780</v>
-      </c>
-      <c r="F55" s="8"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/Puntos riesgo país.xlsx
+++ b/Data/Puntos riesgo país.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estudusfqedu-my.sharepoint.com/personal/esoria_estud_usfq_edu_ec/Documents/Escritorio/Quantificador/RiesgopaisSoria/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{9C9838B8-88AE-47BC-8456-EBB70C85706E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F50FA094-A0F5-4C5D-8ED2-B8AF199CE5B4}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="8_{9C9838B8-88AE-47BC-8456-EBB70C85706E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F99688E-A6A3-4FF3-858B-1BD33CB89005}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AC08FCD3-5F89-4E94-8ACC-8D65B117AB27}"/>
   </bookViews>
@@ -36,22 +36,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>A fin de período</t>
+    <t>Periodo</t>
   </si>
   <si>
-    <t>Promedio del período</t>
-  </si>
-  <si>
-    <t>Periodo</t>
+    <t>Puntos_base</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +76,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -88,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -96,11 +127,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFEBEBEB"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFEBEBEB"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFEBEBEB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFEBEBEB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -116,13 +164,28 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="ANCLAS,REZONES Y SUS PARTES,DE FUNDICION,DE HIERRO O DE ACERO" xfId="1" xr:uid="{27E7CDD3-F91A-4134-AD5D-D2296BB537ED}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentual 2" xfId="2" xr:uid="{0417E407-EBB5-47F3-BC40-3B47E8DB9F11}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -438,614 +501,1905 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AC7F0A-92D3-445F-85C6-0A8224A8026B}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:E229"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="53" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="1" max="1" width="25.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.90625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
+      <c r="C1"/>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10">
+        <v>38169</v>
+      </c>
+      <c r="B2" s="11">
+        <v>852</v>
+      </c>
+      <c r="C2"/>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10">
+        <v>38200</v>
+      </c>
+      <c r="B3" s="11">
+        <v>852</v>
+      </c>
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
+        <v>38231</v>
+      </c>
+      <c r="B4" s="11">
+        <v>815</v>
+      </c>
+      <c r="C4"/>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10">
+        <v>38261</v>
+      </c>
+      <c r="B5" s="11">
+        <v>777</v>
+      </c>
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10">
+        <v>38292</v>
+      </c>
+      <c r="B6" s="11">
+        <v>733</v>
+      </c>
+      <c r="C6"/>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
+        <v>38322</v>
+      </c>
+      <c r="B7" s="11">
+        <v>685</v>
+      </c>
+      <c r="C7"/>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
+        <v>38353</v>
+      </c>
+      <c r="B8" s="13">
+        <v>690</v>
+      </c>
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
+        <v>38384</v>
+      </c>
+      <c r="B9" s="13">
+        <v>641</v>
+      </c>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
+        <v>38412</v>
+      </c>
+      <c r="B10" s="13">
+        <v>630</v>
+      </c>
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12">
+        <v>38443</v>
+      </c>
+      <c r="B11" s="13">
+        <v>659</v>
+      </c>
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12">
+        <v>38473</v>
+      </c>
+      <c r="B12" s="13">
+        <v>810</v>
+      </c>
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12">
+        <v>38504</v>
+      </c>
+      <c r="B13" s="13">
+        <v>874</v>
+      </c>
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="12">
+        <v>38534</v>
+      </c>
+      <c r="B14" s="13">
+        <v>801</v>
+      </c>
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12">
+        <v>38565</v>
+      </c>
+      <c r="B15" s="13">
+        <v>721</v>
+      </c>
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="12">
+        <v>38596</v>
+      </c>
+      <c r="B16" s="13">
+        <v>721</v>
+      </c>
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="12">
+        <v>38626</v>
+      </c>
+      <c r="B17" s="13">
+        <v>634</v>
+      </c>
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12">
+        <v>38657</v>
+      </c>
+      <c r="B18" s="13">
+        <v>661</v>
+      </c>
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="12">
+        <v>38687</v>
+      </c>
+      <c r="B19" s="13">
+        <v>631</v>
+      </c>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="12">
+        <v>38718</v>
+      </c>
+      <c r="B20" s="13">
+        <v>669</v>
+      </c>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="12">
+        <v>38749</v>
+      </c>
+      <c r="B21" s="13">
+        <v>576</v>
+      </c>
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12">
+        <v>38777</v>
+      </c>
+      <c r="B22" s="13">
+        <v>570</v>
+      </c>
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="12">
+        <v>38808</v>
+      </c>
+      <c r="B23" s="13">
+        <v>524</v>
+      </c>
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="12">
+        <v>38838</v>
+      </c>
+      <c r="B24" s="13">
+        <v>478</v>
+      </c>
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="12">
+        <v>38869</v>
+      </c>
+      <c r="B25" s="13">
+        <v>495</v>
+      </c>
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="12">
+        <v>38899</v>
+      </c>
+      <c r="B26" s="13">
+        <v>519</v>
+      </c>
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="12">
+        <v>38930</v>
+      </c>
+      <c r="B27" s="13">
+        <v>492</v>
+      </c>
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="12">
+        <v>38961</v>
+      </c>
+      <c r="B28" s="13">
+        <v>532</v>
+      </c>
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="12">
+        <v>38991</v>
+      </c>
+      <c r="B29" s="13">
+        <v>608</v>
+      </c>
+      <c r="C29"/>
+    </row>
+    <row r="30" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="12">
+        <v>39022</v>
+      </c>
+      <c r="B30" s="13">
+        <v>523</v>
+      </c>
+      <c r="C30"/>
+    </row>
+    <row r="31" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="12">
+        <v>39052</v>
+      </c>
+      <c r="B31" s="13">
+        <v>674</v>
+      </c>
+      <c r="C31"/>
+    </row>
+    <row r="32" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="12">
+        <v>39083</v>
+      </c>
+      <c r="B32" s="13">
+        <v>920</v>
+      </c>
+      <c r="C32"/>
+    </row>
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="12">
+        <v>39114</v>
+      </c>
+      <c r="B33" s="13">
+        <v>784</v>
+      </c>
+      <c r="C33"/>
+    </row>
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="12">
+        <v>39142</v>
+      </c>
+      <c r="B34" s="13">
+        <v>717</v>
+      </c>
+      <c r="C34"/>
+    </row>
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="12">
+        <v>39173</v>
+      </c>
+      <c r="B35" s="13">
+        <v>650</v>
+      </c>
+      <c r="C35"/>
+    </row>
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="12">
+        <v>39203</v>
+      </c>
+      <c r="B36" s="13">
+        <v>603</v>
+      </c>
+      <c r="C36"/>
+    </row>
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="12">
+        <v>39234</v>
+      </c>
+      <c r="B37" s="13">
+        <v>618</v>
+      </c>
+      <c r="C37"/>
+    </row>
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="12">
+        <v>39264</v>
+      </c>
+      <c r="B38" s="13">
+        <v>711</v>
+      </c>
+      <c r="C38"/>
+    </row>
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="12">
+        <v>39295</v>
+      </c>
+      <c r="B39" s="13">
+        <v>718</v>
+      </c>
+      <c r="C39"/>
+    </row>
+    <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="12">
+        <v>39326</v>
+      </c>
+      <c r="B40" s="13">
+        <v>676</v>
+      </c>
+      <c r="C40"/>
+    </row>
+    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="12">
+        <v>39356</v>
+      </c>
+      <c r="B41" s="13">
+        <v>603</v>
+      </c>
+      <c r="C41"/>
+    </row>
+    <row r="42" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="12">
+        <v>39387</v>
+      </c>
+      <c r="B42" s="13">
+        <v>590</v>
+      </c>
+      <c r="C42"/>
+    </row>
+    <row r="43" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="12">
+        <v>39417</v>
+      </c>
+      <c r="B43" s="13">
+        <v>616</v>
+      </c>
+      <c r="C43"/>
+    </row>
+    <row r="44" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="12">
+        <v>39448</v>
+      </c>
+      <c r="B44" s="13">
+        <v>614</v>
+      </c>
+      <c r="C44"/>
+    </row>
+    <row r="45" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="12">
+        <v>39479</v>
+      </c>
+      <c r="B45" s="13">
+        <v>655</v>
+      </c>
+      <c r="C45"/>
+    </row>
+    <row r="46" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="12">
+        <v>39508</v>
+      </c>
+      <c r="B46" s="13">
+        <v>640</v>
+      </c>
+      <c r="C46"/>
+    </row>
+    <row r="47" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="12">
+        <v>39539</v>
+      </c>
+      <c r="B47" s="13">
+        <v>650</v>
+      </c>
+      <c r="C47"/>
+    </row>
+    <row r="48" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="12">
+        <v>39569</v>
+      </c>
+      <c r="B48" s="13">
+        <v>580</v>
+      </c>
+      <c r="C48"/>
+    </row>
+    <row r="49" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="12">
+        <v>39600</v>
+      </c>
+      <c r="B49" s="13">
+        <v>541</v>
+      </c>
+      <c r="C49"/>
+    </row>
+    <row r="50" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="12">
+        <v>39630</v>
+      </c>
+      <c r="B50" s="13">
+        <v>598</v>
+      </c>
+      <c r="C50"/>
+    </row>
+    <row r="51" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="12">
+        <v>39661</v>
+      </c>
+      <c r="B51" s="13">
+        <v>666</v>
+      </c>
+      <c r="C51"/>
+    </row>
+    <row r="52" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="12">
+        <v>39692</v>
+      </c>
+      <c r="B52" s="13">
+        <v>724</v>
+      </c>
+      <c r="C52"/>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="12">
+        <v>39722</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1078</v>
+      </c>
+      <c r="C53"/>
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="12">
+        <v>39753</v>
+      </c>
+      <c r="B54" s="13">
+        <v>3150</v>
+      </c>
+      <c r="D54" s="8"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="12">
+        <v>39783</v>
+      </c>
+      <c r="B55" s="13">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="12">
+        <v>39814</v>
+      </c>
+      <c r="B56" s="13">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="12">
+        <v>39845</v>
+      </c>
+      <c r="B57" s="13">
+        <v>3842</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="12">
+        <v>39873</v>
+      </c>
+      <c r="B58" s="13">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="12">
+        <v>39904</v>
+      </c>
+      <c r="B59" s="13">
+        <v>3519</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="12">
+        <v>39934</v>
+      </c>
+      <c r="B60" s="13">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="12">
+        <v>39965</v>
+      </c>
+      <c r="B61" s="13">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="12">
+        <v>39995</v>
+      </c>
+      <c r="B62" s="13">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="12">
+        <v>40026</v>
+      </c>
+      <c r="B63" s="13">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="12">
+        <v>40057</v>
+      </c>
+      <c r="B64" s="13">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="12">
+        <v>40087</v>
+      </c>
+      <c r="B65" s="13">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="12">
+        <v>40118</v>
+      </c>
+      <c r="B66" s="13">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="12">
+        <v>40148</v>
+      </c>
+      <c r="B67" s="13">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="12">
+        <v>40179</v>
+      </c>
+      <c r="B68" s="13">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="12">
+        <v>40210</v>
+      </c>
+      <c r="B69" s="13">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="12">
+        <v>40238</v>
+      </c>
+      <c r="B70" s="13">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="12">
+        <v>40269</v>
+      </c>
+      <c r="B71" s="13">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="12">
+        <v>40299</v>
+      </c>
+      <c r="B72" s="13">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="12">
+        <v>40330</v>
+      </c>
+      <c r="B73" s="13">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="12">
+        <v>40360</v>
+      </c>
+      <c r="B74" s="13">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="12">
+        <v>40391</v>
+      </c>
+      <c r="B75" s="13">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="12">
+        <v>40422</v>
+      </c>
+      <c r="B76" s="13">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="12">
+        <v>40452</v>
+      </c>
+      <c r="B77" s="13">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="12">
+        <v>40483</v>
+      </c>
+      <c r="B78" s="13">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="12">
+        <v>40513</v>
+      </c>
+      <c r="B79" s="13">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="12">
+        <v>40544</v>
+      </c>
+      <c r="B80" s="13">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="12">
+        <v>40575</v>
+      </c>
+      <c r="B81" s="13">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="12">
+        <v>40603</v>
+      </c>
+      <c r="B82" s="13">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="12">
+        <v>40634</v>
+      </c>
+      <c r="B83" s="13">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="12">
+        <v>40664</v>
+      </c>
+      <c r="B84" s="13">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="12">
+        <v>40695</v>
+      </c>
+      <c r="B85" s="13">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="12">
+        <v>40725</v>
+      </c>
+      <c r="B86" s="13">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="12">
+        <v>40756</v>
+      </c>
+      <c r="B87" s="13">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="12">
+        <v>40787</v>
+      </c>
+      <c r="B88" s="13">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="12">
+        <v>40817</v>
+      </c>
+      <c r="B89" s="13">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="12">
+        <v>40848</v>
+      </c>
+      <c r="B90" s="13">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="12">
+        <v>40878</v>
+      </c>
+      <c r="B91" s="13">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="12">
+        <v>40909</v>
+      </c>
+      <c r="B92" s="13">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="12">
+        <v>40940</v>
+      </c>
+      <c r="B93" s="13">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="12">
+        <v>40969</v>
+      </c>
+      <c r="B94" s="13">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="12">
+        <v>41000</v>
+      </c>
+      <c r="B95" s="13">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="12">
+        <v>41030</v>
+      </c>
+      <c r="B96" s="13">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="12">
+        <v>41061</v>
+      </c>
+      <c r="B97" s="13">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="12">
+        <v>41091</v>
+      </c>
+      <c r="B98" s="13">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="12">
+        <v>41122</v>
+      </c>
+      <c r="B99" s="13">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="12">
+        <v>41153</v>
+      </c>
+      <c r="B100" s="13">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="12">
+        <v>41183</v>
+      </c>
+      <c r="B101" s="13">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="12">
+        <v>41214</v>
+      </c>
+      <c r="B102" s="13">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="12">
+        <v>41244</v>
+      </c>
+      <c r="B103" s="13">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="12">
+        <v>41275</v>
+      </c>
+      <c r="B104" s="13">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="12">
+        <v>41306</v>
+      </c>
+      <c r="B105" s="13">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="12">
+        <v>41334</v>
+      </c>
+      <c r="B106" s="13">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="12">
+        <v>41365</v>
+      </c>
+      <c r="B107" s="13">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="12">
+        <v>41395</v>
+      </c>
+      <c r="B108" s="13">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="12">
+        <v>41426</v>
+      </c>
+      <c r="B109" s="13">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="12">
+        <v>41456</v>
+      </c>
+      <c r="B110" s="13">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="12">
+        <v>41487</v>
+      </c>
+      <c r="B111" s="13">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="12">
+        <v>41518</v>
+      </c>
+      <c r="B112" s="13">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="12">
+        <v>41548</v>
+      </c>
+      <c r="B113" s="13">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="12">
+        <v>41579</v>
+      </c>
+      <c r="B114" s="13">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="12">
+        <v>41609</v>
+      </c>
+      <c r="B115" s="13">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="12">
+        <v>41640</v>
+      </c>
+      <c r="B116" s="13">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="12">
+        <v>41671</v>
+      </c>
+      <c r="B117" s="13">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="12">
+        <v>41699</v>
+      </c>
+      <c r="B118" s="13">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="12">
+        <v>41730</v>
+      </c>
+      <c r="B119" s="13">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="12">
+        <v>41760</v>
+      </c>
+      <c r="B120" s="13">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="12">
+        <v>41791</v>
+      </c>
+      <c r="B121" s="13">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="12">
+        <v>41821</v>
+      </c>
+      <c r="B122" s="13">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="12">
+        <v>41852</v>
+      </c>
+      <c r="B123" s="13">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="12">
+        <v>41883</v>
+      </c>
+      <c r="B124" s="13">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="12">
+        <v>41913</v>
+      </c>
+      <c r="B125" s="13">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="12">
+        <v>41944</v>
+      </c>
+      <c r="B126" s="13">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="12">
+        <v>41974</v>
+      </c>
+      <c r="B127" s="13">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="12">
+        <v>42005</v>
+      </c>
+      <c r="B128" s="13">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="12">
+        <v>42036</v>
+      </c>
+      <c r="B129" s="13">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="12">
+        <v>42064</v>
+      </c>
+      <c r="B130" s="13">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="12">
+        <v>42095</v>
+      </c>
+      <c r="B131" s="13">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="12">
+        <v>42125</v>
+      </c>
+      <c r="B132" s="13">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="12">
+        <v>42156</v>
+      </c>
+      <c r="B133" s="13">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="12">
+        <v>42186</v>
+      </c>
+      <c r="B134" s="13">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="12">
+        <v>42217</v>
+      </c>
+      <c r="B135" s="13">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="12">
+        <v>42248</v>
+      </c>
+      <c r="B136" s="13">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="12">
+        <v>42278</v>
+      </c>
+      <c r="B137" s="13">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="12">
+        <v>42309</v>
+      </c>
+      <c r="B138" s="13">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="12">
+        <v>42339</v>
+      </c>
+      <c r="B139" s="13">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="6">
+        <v>42370</v>
+      </c>
+      <c r="B140" s="9">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="6">
+        <v>42401</v>
+      </c>
+      <c r="B141" s="9">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="6">
+        <v>42430</v>
+      </c>
+      <c r="B142" s="9">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="6">
+        <v>42461</v>
+      </c>
+      <c r="B143" s="9">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="6">
+        <v>42491</v>
+      </c>
+      <c r="B144" s="9">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="6">
+        <v>42522</v>
+      </c>
+      <c r="B145" s="9">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="6">
+        <v>42552</v>
+      </c>
+      <c r="B146" s="9">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="6">
+        <v>42583</v>
+      </c>
+      <c r="B147" s="9">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="6">
+        <v>42614</v>
+      </c>
+      <c r="B148" s="9">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="6">
+        <v>42644</v>
+      </c>
+      <c r="B149" s="9">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="6">
+        <v>42675</v>
+      </c>
+      <c r="B150" s="9">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" s="6">
+        <v>42705</v>
+      </c>
+      <c r="B151" s="9">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" s="6">
+        <v>42736</v>
+      </c>
+      <c r="B152" s="9">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="6">
+        <v>42767</v>
+      </c>
+      <c r="B153" s="9">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="6">
+        <v>42795</v>
+      </c>
+      <c r="B154" s="9">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="6">
+        <v>42826</v>
+      </c>
+      <c r="B155" s="9">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="6">
+        <v>42856</v>
+      </c>
+      <c r="B156" s="9">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" s="6">
+        <v>42887</v>
+      </c>
+      <c r="B157" s="9">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" s="6">
+        <v>42917</v>
+      </c>
+      <c r="B158" s="9">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" s="6">
+        <v>42948</v>
+      </c>
+      <c r="B159" s="9">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="6">
+        <v>42979</v>
+      </c>
+      <c r="B160" s="9">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="6">
+        <v>43009</v>
+      </c>
+      <c r="B161" s="9">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" s="6">
+        <v>43040</v>
+      </c>
+      <c r="B162" s="9">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="6">
+        <v>43070</v>
+      </c>
+      <c r="B163" s="9">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="6">
+        <v>43101</v>
+      </c>
+      <c r="B164" s="9">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" s="6">
+        <v>43132</v>
+      </c>
+      <c r="B165" s="9">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" s="6">
+        <v>43160</v>
+      </c>
+      <c r="B166" s="9">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" s="6">
+        <v>43191</v>
+      </c>
+      <c r="B167" s="9">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" s="6">
+        <v>43221</v>
+      </c>
+      <c r="B168" s="9">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="6">
+        <v>43252</v>
+      </c>
+      <c r="B169" s="9">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="6">
+        <v>43282</v>
+      </c>
+      <c r="B170" s="9">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" s="6">
+        <v>43313</v>
+      </c>
+      <c r="B171" s="9">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" s="6">
+        <v>43344</v>
+      </c>
+      <c r="B172" s="9">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" s="6">
+        <v>43374</v>
+      </c>
+      <c r="B173" s="9">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" s="6">
+        <v>43405</v>
+      </c>
+      <c r="B174" s="9">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" s="6">
+        <v>43435</v>
+      </c>
+      <c r="B175" s="9">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" s="6">
         <v>43466</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B176" s="4">
         <v>690</v>
       </c>
-      <c r="C2" s="4">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="6">
         <v>43497</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B177" s="4">
         <v>584</v>
       </c>
-      <c r="C3" s="4">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="6">
         <v>43525</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B178" s="4">
         <v>592</v>
       </c>
-      <c r="C4" s="4">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="6">
         <v>43556</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B179" s="4">
         <v>560</v>
       </c>
-      <c r="C5" s="4">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" s="6">
         <v>43586</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B180" s="4">
         <v>619</v>
       </c>
-      <c r="C6" s="4">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="6">
         <v>43617</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B181" s="4">
         <v>580</v>
       </c>
-      <c r="C7" s="4">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" s="6">
         <v>43647</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B182" s="4">
         <v>603</v>
       </c>
-      <c r="C8" s="4">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" s="6">
         <v>43678</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B183" s="4">
         <v>705</v>
       </c>
-      <c r="C9" s="4">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="6">
         <v>43709</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B184" s="4">
         <v>677</v>
       </c>
-      <c r="C10" s="4">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" s="6">
         <v>43739</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B185" s="4">
         <v>789</v>
       </c>
-      <c r="C11" s="4">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="6">
         <v>43770</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B186" s="4">
         <v>1146</v>
       </c>
-      <c r="C12" s="4">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" s="6">
         <v>43800</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B187" s="4">
         <v>826</v>
       </c>
-      <c r="C13" s="4">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" s="6">
         <v>43831</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B188" s="4">
         <v>1018</v>
       </c>
-      <c r="C14" s="4">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" s="6">
         <v>43862</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B189" s="4">
         <v>1466</v>
       </c>
-      <c r="C15" s="4">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="6">
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" s="6">
         <v>43891</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B190" s="4">
         <v>4553</v>
       </c>
-      <c r="C16" s="4">
-        <v>3580</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="6">
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" s="6">
         <v>43922</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B191" s="4">
         <v>5129</v>
       </c>
-      <c r="C17" s="4">
-        <v>5033</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="6">
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" s="6">
         <v>43952</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B192" s="4">
         <v>3907</v>
       </c>
-      <c r="C18" s="4">
-        <v>4305</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="6">
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" s="6">
         <v>43983</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B193" s="4">
         <v>3373</v>
       </c>
-      <c r="C19" s="4">
-        <v>3287</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="6">
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" s="6">
         <v>44013</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B194" s="4">
         <v>2755</v>
       </c>
-      <c r="C20" s="4">
-        <v>2862</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="6">
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" s="6">
         <v>44044</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B195" s="4">
         <v>2813</v>
       </c>
-      <c r="C21" s="4">
-        <v>2780</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="6">
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" s="6">
         <v>44075</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B196" s="4">
         <v>1015</v>
       </c>
-      <c r="C22" s="4">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="6">
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" s="6">
         <v>44105</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B197" s="4">
         <v>1029</v>
       </c>
-      <c r="C23" s="4">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="6">
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" s="6">
         <v>44136</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B198" s="4">
         <v>1065</v>
       </c>
-      <c r="C24" s="4">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="6">
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" s="6">
         <v>44166</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B199" s="4">
         <v>1062</v>
       </c>
-      <c r="C25" s="4">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="6">
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" s="6">
         <v>44197</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B200" s="4">
         <v>1273</v>
       </c>
-      <c r="C26" s="4">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="6">
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" s="6">
         <v>44228</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B201" s="4">
         <v>1226</v>
       </c>
-      <c r="C27" s="4">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="6">
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" s="6">
         <v>44256</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B202" s="4">
         <v>1201</v>
       </c>
-      <c r="C28" s="4">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="6">
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" s="6">
         <v>44287</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B203" s="4">
         <v>764</v>
       </c>
-      <c r="C29" s="4">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="6">
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" s="6">
         <v>44317</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B204" s="4">
         <v>730</v>
       </c>
-      <c r="C30" s="4">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="6">
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" s="6">
         <v>44348</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B205" s="4">
         <v>776</v>
       </c>
-      <c r="C31" s="4">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="6">
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" s="6">
         <v>44378</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B206" s="4">
         <v>790</v>
       </c>
-      <c r="C32" s="4">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="6">
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" s="6">
         <v>44409</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B207" s="4">
         <v>751</v>
       </c>
-      <c r="C33" s="4">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="6">
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" s="6">
         <v>44440</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B208" s="4">
         <v>835</v>
       </c>
-      <c r="C34" s="4">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="6">
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" s="6">
         <v>44470</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B209" s="4">
         <v>847</v>
       </c>
-      <c r="C35" s="4">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="6">
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" s="6">
         <v>44501</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B210" s="4">
         <v>891</v>
       </c>
-      <c r="C36" s="4">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="6">
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" s="6">
         <v>44531</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B211" s="4">
         <v>869</v>
       </c>
-      <c r="C37" s="4">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="6">
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" s="6">
         <v>44562</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B212" s="4">
         <v>768</v>
       </c>
-      <c r="C38" s="4">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="6">
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" s="6">
         <v>44593</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B213" s="4">
         <v>755</v>
       </c>
-      <c r="C39" s="4">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="6">
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" s="6">
         <v>44621</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B214" s="4">
         <v>810</v>
       </c>
-      <c r="C40" s="4">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="6">
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" s="6">
         <v>44652</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B215" s="4">
         <v>816</v>
       </c>
-      <c r="C41" s="4">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="6">
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" s="6">
         <v>44682</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B216" s="4">
         <v>802</v>
       </c>
-      <c r="C42" s="4">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="6">
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" s="6">
         <v>44713</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B217" s="4">
         <v>1165</v>
       </c>
-      <c r="C43" s="4">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="6">
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" s="6">
         <v>44743</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B218" s="4">
         <v>1336</v>
       </c>
-      <c r="C44" s="4">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="6">
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" s="6">
         <v>44774</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B219" s="4">
         <v>1550</v>
       </c>
-      <c r="C45" s="4">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="6">
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" s="6">
         <v>44805</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B220" s="4">
         <v>1753</v>
       </c>
-      <c r="C46" s="4">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="6">
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" s="6">
         <v>44835</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B221" s="4">
         <v>1570</v>
       </c>
-      <c r="C47" s="4">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="6">
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" s="6">
         <v>44866</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B222" s="4">
         <v>1333</v>
       </c>
-      <c r="C48" s="4">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="6">
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" s="6">
         <v>44896</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B223" s="4">
         <v>1250</v>
       </c>
-      <c r="C49" s="4">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="6">
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" s="6">
         <v>44927</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B224" s="4">
         <v>1216</v>
       </c>
-      <c r="C50" s="4">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="6">
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" s="6">
         <v>44958</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B225" s="4">
         <v>1765</v>
       </c>
-      <c r="C51" s="4">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="6">
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" s="6">
         <v>44986</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B226" s="4">
         <v>1917</v>
       </c>
-      <c r="C52" s="4">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="6">
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" s="6">
         <v>45017</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B227" s="4">
         <v>1757</v>
       </c>
-      <c r="C53" s="4">
-        <v>1892</v>
-      </c>
-      <c r="F53" s="8"/>
-    </row>
-    <row r="54" spans="1:6" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="6">
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" s="6">
         <v>45047</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B228" s="4">
         <v>1911</v>
       </c>
-      <c r="C54" s="4">
-        <v>1780</v>
-      </c>
-      <c r="F54" s="8"/>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" s="6">
+        <v>45078</v>
+      </c>
+      <c r="B229" s="4">
+        <v>1922</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Puntos riesgo país.xlsx
+++ b/Data/Puntos riesgo país.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estudusfqedu-my.sharepoint.com/personal/esoria_estud_usfq_edu_ec/Documents/Escritorio/Quantificador/RiesgopaisSoria/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="8_{9C9838B8-88AE-47BC-8456-EBB70C85706E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F99688E-A6A3-4FF3-858B-1BD33CB89005}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{9C9838B8-88AE-47BC-8456-EBB70C85706E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BA73B5C-4CB2-4531-ABDD-72801BCC0881}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AC08FCD3-5F89-4E94-8ACC-8D65B117AB27}"/>
   </bookViews>
@@ -148,18 +148,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -179,6 +173,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -503,1905 +500,1903 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AC7F0A-92D3-445F-85C6-0A8224A8026B}">
   <dimension ref="A1:E229"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.90625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="25.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.90625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1"/>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10">
+      <c r="A2" s="8">
         <v>38169</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="9">
         <v>852</v>
       </c>
       <c r="C2"/>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10">
+      <c r="A3" s="8">
         <v>38200</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="9">
         <v>852</v>
       </c>
       <c r="C3"/>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10">
+      <c r="A4" s="8">
         <v>38231</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>815</v>
       </c>
       <c r="C4"/>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10">
+      <c r="A5" s="8">
         <v>38261</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>777</v>
       </c>
       <c r="C5"/>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10">
+      <c r="A6" s="8">
         <v>38292</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>733</v>
       </c>
       <c r="C6"/>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10">
+      <c r="A7" s="8">
         <v>38322</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>685</v>
       </c>
       <c r="C7"/>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
+      <c r="A8" s="10">
         <v>38353</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="11">
         <v>690</v>
       </c>
       <c r="C8"/>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
+      <c r="A9" s="10">
         <v>38384</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="11">
         <v>641</v>
       </c>
       <c r="C9"/>
     </row>
     <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12">
+      <c r="A10" s="10">
         <v>38412</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="11">
         <v>630</v>
       </c>
       <c r="C10"/>
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12">
+      <c r="A11" s="10">
         <v>38443</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="11">
         <v>659</v>
       </c>
       <c r="C11"/>
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12">
+      <c r="A12" s="10">
         <v>38473</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="11">
         <v>810</v>
       </c>
       <c r="C12"/>
     </row>
     <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12">
+      <c r="A13" s="10">
         <v>38504</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="11">
         <v>874</v>
       </c>
       <c r="C13"/>
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="12">
+      <c r="A14" s="10">
         <v>38534</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="11">
         <v>801</v>
       </c>
       <c r="C14"/>
     </row>
     <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="12">
+      <c r="A15" s="10">
         <v>38565</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="11">
         <v>721</v>
       </c>
       <c r="C15"/>
     </row>
     <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12">
+      <c r="A16" s="10">
         <v>38596</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="11">
         <v>721</v>
       </c>
       <c r="C16"/>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12">
+      <c r="A17" s="10">
         <v>38626</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="11">
         <v>634</v>
       </c>
       <c r="C17"/>
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="12">
+      <c r="A18" s="10">
         <v>38657</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="11">
         <v>661</v>
       </c>
       <c r="C18"/>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="12">
+      <c r="A19" s="10">
         <v>38687</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="11">
         <v>631</v>
       </c>
       <c r="C19"/>
     </row>
     <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="12">
+      <c r="A20" s="10">
         <v>38718</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="11">
         <v>669</v>
       </c>
       <c r="C20"/>
     </row>
     <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="12">
+      <c r="A21" s="10">
         <v>38749</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="11">
         <v>576</v>
       </c>
       <c r="C21"/>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="12">
+      <c r="A22" s="10">
         <v>38777</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="11">
         <v>570</v>
       </c>
       <c r="C22"/>
     </row>
     <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="12">
+      <c r="A23" s="10">
         <v>38808</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="11">
         <v>524</v>
       </c>
       <c r="C23"/>
     </row>
     <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="12">
+      <c r="A24" s="10">
         <v>38838</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="11">
         <v>478</v>
       </c>
       <c r="C24"/>
     </row>
     <row r="25" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="12">
+      <c r="A25" s="10">
         <v>38869</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="11">
         <v>495</v>
       </c>
       <c r="C25"/>
     </row>
     <row r="26" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="12">
+      <c r="A26" s="10">
         <v>38899</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="11">
         <v>519</v>
       </c>
       <c r="C26"/>
     </row>
     <row r="27" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="12">
+      <c r="A27" s="10">
         <v>38930</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="11">
         <v>492</v>
       </c>
       <c r="C27"/>
     </row>
     <row r="28" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="12">
+      <c r="A28" s="10">
         <v>38961</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="11">
         <v>532</v>
       </c>
       <c r="C28"/>
     </row>
     <row r="29" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="12">
+      <c r="A29" s="10">
         <v>38991</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="11">
         <v>608</v>
       </c>
       <c r="C29"/>
     </row>
     <row r="30" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="12">
+      <c r="A30" s="10">
         <v>39022</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="11">
         <v>523</v>
       </c>
       <c r="C30"/>
     </row>
     <row r="31" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="12">
+      <c r="A31" s="10">
         <v>39052</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="11">
         <v>674</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="12">
+      <c r="A32" s="10">
         <v>39083</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="11">
         <v>920</v>
       </c>
       <c r="C32"/>
     </row>
     <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="12">
+      <c r="A33" s="10">
         <v>39114</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="11">
         <v>784</v>
       </c>
       <c r="C33"/>
     </row>
     <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="12">
+      <c r="A34" s="10">
         <v>39142</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="11">
         <v>717</v>
       </c>
       <c r="C34"/>
     </row>
     <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="12">
+      <c r="A35" s="10">
         <v>39173</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="11">
         <v>650</v>
       </c>
       <c r="C35"/>
     </row>
     <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="12">
+      <c r="A36" s="10">
         <v>39203</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="11">
         <v>603</v>
       </c>
       <c r="C36"/>
     </row>
     <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="12">
+      <c r="A37" s="10">
         <v>39234</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="11">
         <v>618</v>
       </c>
       <c r="C37"/>
     </row>
     <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="12">
+      <c r="A38" s="10">
         <v>39264</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="11">
         <v>711</v>
       </c>
       <c r="C38"/>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="12">
+      <c r="A39" s="10">
         <v>39295</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="11">
         <v>718</v>
       </c>
       <c r="C39"/>
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="12">
+      <c r="A40" s="10">
         <v>39326</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="11">
         <v>676</v>
       </c>
       <c r="C40"/>
     </row>
     <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="12">
+      <c r="A41" s="10">
         <v>39356</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="11">
         <v>603</v>
       </c>
       <c r="C41"/>
     </row>
     <row r="42" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="12">
+      <c r="A42" s="10">
         <v>39387</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="11">
         <v>590</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="12">
+      <c r="A43" s="10">
         <v>39417</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="11">
         <v>616</v>
       </c>
       <c r="C43"/>
     </row>
     <row r="44" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="12">
+      <c r="A44" s="10">
         <v>39448</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="11">
         <v>614</v>
       </c>
       <c r="C44"/>
     </row>
     <row r="45" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="12">
+      <c r="A45" s="10">
         <v>39479</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="11">
         <v>655</v>
       </c>
       <c r="C45"/>
     </row>
     <row r="46" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="12">
+      <c r="A46" s="10">
         <v>39508</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="11">
         <v>640</v>
       </c>
       <c r="C46"/>
     </row>
     <row r="47" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="12">
+      <c r="A47" s="10">
         <v>39539</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="11">
         <v>650</v>
       </c>
       <c r="C47"/>
     </row>
     <row r="48" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="12">
+      <c r="A48" s="10">
         <v>39569</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="11">
         <v>580</v>
       </c>
       <c r="C48"/>
     </row>
     <row r="49" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="12">
+      <c r="A49" s="10">
         <v>39600</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="11">
         <v>541</v>
       </c>
       <c r="C49"/>
     </row>
     <row r="50" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="12">
+      <c r="A50" s="10">
         <v>39630</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="11">
         <v>598</v>
       </c>
       <c r="C50"/>
     </row>
     <row r="51" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="12">
+      <c r="A51" s="10">
         <v>39661</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B51" s="11">
         <v>666</v>
       </c>
       <c r="C51"/>
     </row>
     <row r="52" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="12">
+      <c r="A52" s="10">
         <v>39692</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="11">
         <v>724</v>
       </c>
       <c r="C52"/>
-      <c r="E52" s="7"/>
+      <c r="E52" s="5"/>
     </row>
     <row r="53" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="12">
+      <c r="A53" s="10">
         <v>39722</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53" s="11">
         <v>1078</v>
       </c>
       <c r="C53"/>
-      <c r="E53" s="7"/>
+      <c r="E53" s="5"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="12">
+      <c r="A54" s="10">
         <v>39753</v>
       </c>
-      <c r="B54" s="13">
+      <c r="B54" s="11">
         <v>3150</v>
       </c>
-      <c r="D54" s="8"/>
+      <c r="D54" s="6"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="12">
+      <c r="A55" s="10">
         <v>39783</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B55" s="11">
         <v>3604</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="12">
+      <c r="A56" s="10">
         <v>39814</v>
       </c>
-      <c r="B56" s="13">
+      <c r="B56" s="11">
         <v>4731</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="12">
+      <c r="A57" s="10">
         <v>39845</v>
       </c>
-      <c r="B57" s="13">
+      <c r="B57" s="11">
         <v>3842</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="12">
+      <c r="A58" s="10">
         <v>39873</v>
       </c>
-      <c r="B58" s="13">
+      <c r="B58" s="11">
         <v>3433</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="12">
+      <c r="A59" s="10">
         <v>39904</v>
       </c>
-      <c r="B59" s="13">
+      <c r="B59" s="11">
         <v>3519</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="12">
+      <c r="A60" s="10">
         <v>39934</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B60" s="11">
         <v>3386</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="12">
+      <c r="A61" s="10">
         <v>39965</v>
       </c>
-      <c r="B61" s="13">
+      <c r="B61" s="11">
         <v>2958</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="12">
+      <c r="A62" s="10">
         <v>39995</v>
       </c>
-      <c r="B62" s="13">
+      <c r="B62" s="11">
         <v>1323</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="12">
+      <c r="A63" s="10">
         <v>40026</v>
       </c>
-      <c r="B63" s="13">
+      <c r="B63" s="11">
         <v>1180</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="12">
+      <c r="A64" s="10">
         <v>40057</v>
       </c>
-      <c r="B64" s="13">
+      <c r="B64" s="11">
         <v>1096</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="12">
+      <c r="A65" s="10">
         <v>40087</v>
       </c>
-      <c r="B65" s="13">
+      <c r="B65" s="11">
         <v>953</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="12">
+      <c r="A66" s="10">
         <v>40118</v>
       </c>
-      <c r="B66" s="13">
+      <c r="B66" s="11">
         <v>814</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="12">
+      <c r="A67" s="10">
         <v>40148</v>
       </c>
-      <c r="B67" s="13">
+      <c r="B67" s="11">
         <v>844</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="12">
+      <c r="A68" s="10">
         <v>40179</v>
       </c>
-      <c r="B68" s="13">
+      <c r="B68" s="11">
         <v>769</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="12">
+      <c r="A69" s="10">
         <v>40210</v>
       </c>
-      <c r="B69" s="13">
+      <c r="B69" s="11">
         <v>804</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="12">
+      <c r="A70" s="10">
         <v>40238</v>
       </c>
-      <c r="B70" s="13">
+      <c r="B70" s="11">
         <v>822</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="12">
+      <c r="A71" s="10">
         <v>40269</v>
       </c>
-      <c r="B71" s="13">
+      <c r="B71" s="11">
         <v>816</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="12">
+      <c r="A72" s="10">
         <v>40299</v>
       </c>
-      <c r="B72" s="13">
+      <c r="B72" s="11">
         <v>823</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="12">
+      <c r="A73" s="10">
         <v>40330</v>
       </c>
-      <c r="B73" s="13">
+      <c r="B73" s="11">
         <v>952</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="12">
+      <c r="A74" s="10">
         <v>40360</v>
       </c>
-      <c r="B74" s="13">
+      <c r="B74" s="11">
         <v>1014</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="12">
+      <c r="A75" s="10">
         <v>40391</v>
       </c>
-      <c r="B75" s="13">
+      <c r="B75" s="11">
         <v>1037</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="12">
+      <c r="A76" s="10">
         <v>40422</v>
       </c>
-      <c r="B76" s="13">
+      <c r="B76" s="11">
         <v>1033</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="12">
+      <c r="A77" s="10">
         <v>40452</v>
       </c>
-      <c r="B77" s="13">
+      <c r="B77" s="11">
         <v>1010</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="12">
+      <c r="A78" s="10">
         <v>40483</v>
       </c>
-      <c r="B78" s="13">
+      <c r="B78" s="11">
         <v>1012</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="12">
+      <c r="A79" s="10">
         <v>40513</v>
       </c>
-      <c r="B79" s="13">
+      <c r="B79" s="11">
         <v>971</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="12">
+      <c r="A80" s="10">
         <v>40544</v>
       </c>
-      <c r="B80" s="13">
+      <c r="B80" s="11">
         <v>913</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="12">
+      <c r="A81" s="10">
         <v>40575</v>
       </c>
-      <c r="B81" s="13">
+      <c r="B81" s="11">
         <v>835</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="12">
+      <c r="A82" s="10">
         <v>40603</v>
       </c>
-      <c r="B82" s="13">
+      <c r="B82" s="11">
         <v>761</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="12">
+      <c r="A83" s="10">
         <v>40634</v>
       </c>
-      <c r="B83" s="13">
+      <c r="B83" s="11">
         <v>778</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="12">
+      <c r="A84" s="10">
         <v>40664</v>
       </c>
-      <c r="B84" s="13">
+      <c r="B84" s="11">
         <v>782</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="12">
+      <c r="A85" s="10">
         <v>40695</v>
       </c>
-      <c r="B85" s="13">
+      <c r="B85" s="11">
         <v>806</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="12">
+      <c r="A86" s="10">
         <v>40725</v>
       </c>
-      <c r="B86" s="13">
+      <c r="B86" s="11">
         <v>779</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="12">
+      <c r="A87" s="10">
         <v>40756</v>
       </c>
-      <c r="B87" s="13">
+      <c r="B87" s="11">
         <v>782</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="12">
+      <c r="A88" s="10">
         <v>40787</v>
       </c>
-      <c r="B88" s="13">
+      <c r="B88" s="11">
         <v>876</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="12">
+      <c r="A89" s="10">
         <v>40817</v>
       </c>
-      <c r="B89" s="13">
+      <c r="B89" s="11">
         <v>868</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="12">
+      <c r="A90" s="10">
         <v>40848</v>
       </c>
-      <c r="B90" s="13">
+      <c r="B90" s="11">
         <v>891</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="12">
+      <c r="A91" s="10">
         <v>40878</v>
       </c>
-      <c r="B91" s="13">
+      <c r="B91" s="11">
         <v>837</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="12">
+      <c r="A92" s="10">
         <v>40909</v>
       </c>
-      <c r="B92" s="13">
+      <c r="B92" s="11">
         <v>846</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="12">
+      <c r="A93" s="10">
         <v>40940</v>
       </c>
-      <c r="B93" s="13">
+      <c r="B93" s="11">
         <v>817</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="12">
+      <c r="A94" s="10">
         <v>40969</v>
       </c>
-      <c r="B94" s="13">
+      <c r="B94" s="11">
         <v>787</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="12">
+      <c r="A95" s="10">
         <v>41000</v>
       </c>
-      <c r="B95" s="13">
+      <c r="B95" s="11">
         <v>824</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="12">
+      <c r="A96" s="10">
         <v>41030</v>
       </c>
-      <c r="B96" s="13">
+      <c r="B96" s="11">
         <v>791</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="12">
+      <c r="A97" s="10">
         <v>41061</v>
       </c>
-      <c r="B97" s="13">
+      <c r="B97" s="11">
         <v>951</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="12">
+      <c r="A98" s="10">
         <v>41091</v>
       </c>
-      <c r="B98" s="13">
+      <c r="B98" s="11">
         <v>892</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="12">
+      <c r="A99" s="10">
         <v>41122</v>
       </c>
-      <c r="B99" s="13">
+      <c r="B99" s="11">
         <v>849</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="12">
+      <c r="A100" s="10">
         <v>41153</v>
       </c>
-      <c r="B100" s="13">
+      <c r="B100" s="11">
         <v>791</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" s="12">
+      <c r="A101" s="10">
         <v>41183</v>
       </c>
-      <c r="B101" s="13">
+      <c r="B101" s="11">
         <v>743</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="12">
+      <c r="A102" s="10">
         <v>41214</v>
       </c>
-      <c r="B102" s="13">
+      <c r="B102" s="11">
         <v>824</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="12">
+      <c r="A103" s="10">
         <v>41244</v>
       </c>
-      <c r="B103" s="13">
+      <c r="B103" s="11">
         <v>829</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="12">
+      <c r="A104" s="10">
         <v>41275</v>
       </c>
-      <c r="B104" s="13">
+      <c r="B104" s="11">
         <v>826</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" s="12">
+      <c r="A105" s="10">
         <v>41306</v>
       </c>
-      <c r="B105" s="13">
+      <c r="B105" s="11">
         <v>704</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="12">
+      <c r="A106" s="10">
         <v>41334</v>
       </c>
-      <c r="B106" s="13">
+      <c r="B106" s="11">
         <v>705</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" s="12">
+      <c r="A107" s="10">
         <v>41365</v>
       </c>
-      <c r="B107" s="13">
+      <c r="B107" s="11">
         <v>700</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="12">
+      <c r="A108" s="10">
         <v>41395</v>
       </c>
-      <c r="B108" s="13">
+      <c r="B108" s="11">
         <v>647</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" s="12">
+      <c r="A109" s="10">
         <v>41426</v>
       </c>
-      <c r="B109" s="13">
+      <c r="B109" s="11">
         <v>626</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" s="12">
+      <c r="A110" s="10">
         <v>41456</v>
       </c>
-      <c r="B110" s="13">
+      <c r="B110" s="11">
         <v>665</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" s="12">
+      <c r="A111" s="10">
         <v>41487</v>
       </c>
-      <c r="B111" s="13">
+      <c r="B111" s="11">
         <v>617</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" s="12">
+      <c r="A112" s="10">
         <v>41518</v>
       </c>
-      <c r="B112" s="13">
+      <c r="B112" s="11">
         <v>649</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" s="12">
+      <c r="A113" s="10">
         <v>41548</v>
       </c>
-      <c r="B113" s="13">
+      <c r="B113" s="11">
         <v>626</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" s="12">
+      <c r="A114" s="10">
         <v>41579</v>
       </c>
-      <c r="B114" s="13">
+      <c r="B114" s="11">
         <v>523</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" s="12">
+      <c r="A115" s="10">
         <v>41609</v>
       </c>
-      <c r="B115" s="13">
+      <c r="B115" s="11">
         <v>539</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" s="12">
+      <c r="A116" s="10">
         <v>41640</v>
       </c>
-      <c r="B116" s="13">
+      <c r="B116" s="11">
         <v>530</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" s="12">
+      <c r="A117" s="10">
         <v>41671</v>
       </c>
-      <c r="B117" s="13">
+      <c r="B117" s="11">
         <v>605</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" s="12">
+      <c r="A118" s="10">
         <v>41699</v>
       </c>
-      <c r="B118" s="13">
+      <c r="B118" s="11">
         <v>609</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" s="12">
+      <c r="A119" s="10">
         <v>41730</v>
       </c>
-      <c r="B119" s="13">
+      <c r="B119" s="11">
         <v>498</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" s="12">
+      <c r="A120" s="10">
         <v>41760</v>
       </c>
-      <c r="B120" s="13">
+      <c r="B120" s="11">
         <v>361</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121" s="12">
+      <c r="A121" s="10">
         <v>41791</v>
       </c>
-      <c r="B121" s="13">
+      <c r="B121" s="11">
         <v>372</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122" s="12">
+      <c r="A122" s="10">
         <v>41821</v>
       </c>
-      <c r="B122" s="13">
+      <c r="B122" s="11">
         <v>406</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" s="12">
+      <c r="A123" s="10">
         <v>41852</v>
       </c>
-      <c r="B123" s="13">
+      <c r="B123" s="11">
         <v>417</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" s="12">
+      <c r="A124" s="10">
         <v>41883</v>
       </c>
-      <c r="B124" s="13">
+      <c r="B124" s="11">
         <v>316</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125" s="12">
+      <c r="A125" s="10">
         <v>41913</v>
       </c>
-      <c r="B125" s="13">
+      <c r="B125" s="11">
         <v>400</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A126" s="12">
+      <c r="A126" s="10">
         <v>41944</v>
       </c>
-      <c r="B126" s="13">
+      <c r="B126" s="11">
         <v>412</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A127" s="12">
+      <c r="A127" s="10">
         <v>41974</v>
       </c>
-      <c r="B127" s="13">
+      <c r="B127" s="11">
         <v>607</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128" s="12">
+      <c r="A128" s="10">
         <v>42005</v>
       </c>
-      <c r="B128" s="13">
+      <c r="B128" s="11">
         <v>883</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A129" s="12">
+      <c r="A129" s="10">
         <v>42036</v>
       </c>
-      <c r="B129" s="13">
+      <c r="B129" s="11">
         <v>887</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" s="12">
+      <c r="A130" s="10">
         <v>42064</v>
       </c>
-      <c r="B130" s="13">
+      <c r="B130" s="11">
         <v>763</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" s="12">
+      <c r="A131" s="10">
         <v>42095</v>
       </c>
-      <c r="B131" s="13">
+      <c r="B131" s="11">
         <v>868</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" s="12">
+      <c r="A132" s="10">
         <v>42125</v>
       </c>
-      <c r="B132" s="13">
+      <c r="B132" s="11">
         <v>671</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A133" s="12">
+      <c r="A133" s="10">
         <v>42156</v>
       </c>
-      <c r="B133" s="13">
+      <c r="B133" s="11">
         <v>730</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A134" s="12">
+      <c r="A134" s="10">
         <v>42186</v>
       </c>
-      <c r="B134" s="13">
+      <c r="B134" s="11">
         <v>826</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A135" s="12">
+      <c r="A135" s="10">
         <v>42217</v>
       </c>
-      <c r="B135" s="13">
+      <c r="B135" s="11">
         <v>980</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A136" s="12">
+      <c r="A136" s="10">
         <v>42248</v>
       </c>
-      <c r="B136" s="13">
+      <c r="B136" s="11">
         <v>1348</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A137" s="12">
+      <c r="A137" s="10">
         <v>42278</v>
       </c>
-      <c r="B137" s="13">
+      <c r="B137" s="11">
         <v>1498</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A138" s="12">
+      <c r="A138" s="10">
         <v>42309</v>
       </c>
-      <c r="B138" s="13">
+      <c r="B138" s="11">
         <v>1252</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A139" s="12">
+      <c r="A139" s="10">
         <v>42339</v>
       </c>
-      <c r="B139" s="13">
+      <c r="B139" s="11">
         <v>1190</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A140" s="6">
+      <c r="A140" s="4">
         <v>42370</v>
       </c>
-      <c r="B140" s="9">
+      <c r="B140" s="7">
         <v>1509</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A141" s="6">
+      <c r="A141" s="4">
         <v>42401</v>
       </c>
-      <c r="B141" s="9">
+      <c r="B141" s="7">
         <v>1391</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A142" s="6">
+      <c r="A142" s="4">
         <v>42430</v>
       </c>
-      <c r="B142" s="9">
+      <c r="B142" s="7">
         <v>1058</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A143" s="6">
+      <c r="A143" s="4">
         <v>42461</v>
       </c>
-      <c r="B143" s="9">
+      <c r="B143" s="7">
         <v>941</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A144" s="6">
+      <c r="A144" s="4">
         <v>42491</v>
       </c>
-      <c r="B144" s="9">
+      <c r="B144" s="7">
         <v>855</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A145" s="6">
+      <c r="A145" s="4">
         <v>42522</v>
       </c>
-      <c r="B145" s="9">
+      <c r="B145" s="7">
         <v>913</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A146" s="6">
+      <c r="A146" s="4">
         <v>42552</v>
       </c>
-      <c r="B146" s="9">
+      <c r="B146" s="7">
         <v>877</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A147" s="6">
+      <c r="A147" s="4">
         <v>42583</v>
       </c>
-      <c r="B147" s="9">
+      <c r="B147" s="7">
         <v>863</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A148" s="6">
+      <c r="A148" s="4">
         <v>42614</v>
       </c>
-      <c r="B148" s="9">
+      <c r="B148" s="7">
         <v>845</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A149" s="6">
+      <c r="A149" s="4">
         <v>42644</v>
       </c>
-      <c r="B149" s="9">
+      <c r="B149" s="7">
         <v>743</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A150" s="6">
+      <c r="A150" s="4">
         <v>42675</v>
       </c>
-      <c r="B150" s="9">
+      <c r="B150" s="7">
         <v>736</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A151" s="6">
+      <c r="A151" s="4">
         <v>42705</v>
       </c>
-      <c r="B151" s="9">
+      <c r="B151" s="7">
         <v>647</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A152" s="6">
+      <c r="A152" s="4">
         <v>42736</v>
       </c>
-      <c r="B152" s="9">
+      <c r="B152" s="7">
         <v>590</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A153" s="6">
+      <c r="A153" s="4">
         <v>42767</v>
       </c>
-      <c r="B153" s="9">
+      <c r="B153" s="7">
         <v>572</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A154" s="6">
+      <c r="A154" s="4">
         <v>42795</v>
       </c>
-      <c r="B154" s="9">
+      <c r="B154" s="7">
         <v>666</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A155" s="6">
+      <c r="A155" s="4">
         <v>42826</v>
       </c>
-      <c r="B155" s="9">
+      <c r="B155" s="7">
         <v>667</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A156" s="6">
+      <c r="A156" s="4">
         <v>42856</v>
       </c>
-      <c r="B156" s="9">
+      <c r="B156" s="7">
         <v>694</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A157" s="6">
+      <c r="A157" s="4">
         <v>42887</v>
       </c>
-      <c r="B157" s="9">
+      <c r="B157" s="7">
         <v>706</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A158" s="6">
+      <c r="A158" s="4">
         <v>42917</v>
       </c>
-      <c r="B158" s="9">
+      <c r="B158" s="7">
         <v>673</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A159" s="6">
+      <c r="A159" s="4">
         <v>42948</v>
       </c>
-      <c r="B159" s="9">
+      <c r="B159" s="7">
         <v>643</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A160" s="6">
+      <c r="A160" s="4">
         <v>42979</v>
       </c>
-      <c r="B160" s="9">
+      <c r="B160" s="7">
         <v>606</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A161" s="6">
+      <c r="A161" s="4">
         <v>43009</v>
       </c>
-      <c r="B161" s="9">
+      <c r="B161" s="7">
         <v>563</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A162" s="6">
+      <c r="A162" s="4">
         <v>43040</v>
       </c>
-      <c r="B162" s="9">
+      <c r="B162" s="7">
         <v>507</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A163" s="6">
+      <c r="A163" s="4">
         <v>43070</v>
       </c>
-      <c r="B163" s="9">
+      <c r="B163" s="7">
         <v>459</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A164" s="6">
+      <c r="A164" s="4">
         <v>43101</v>
       </c>
-      <c r="B164" s="9">
+      <c r="B164" s="7">
         <v>442</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A165" s="6">
+      <c r="A165" s="4">
         <v>43132</v>
       </c>
-      <c r="B165" s="9">
+      <c r="B165" s="7">
         <v>490</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A166" s="6">
+      <c r="A166" s="4">
         <v>43160</v>
       </c>
-      <c r="B166" s="9">
+      <c r="B166" s="7">
         <v>544</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A167" s="6">
+      <c r="A167" s="4">
         <v>43191</v>
       </c>
-      <c r="B167" s="9">
+      <c r="B167" s="7">
         <v>667</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A168" s="6">
+      <c r="A168" s="4">
         <v>43221</v>
       </c>
-      <c r="B168" s="9">
+      <c r="B168" s="7">
         <v>671</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A169" s="6">
+      <c r="A169" s="4">
         <v>43252</v>
       </c>
-      <c r="B169" s="9">
+      <c r="B169" s="7">
         <v>761</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A170" s="6">
+      <c r="A170" s="4">
         <v>43282</v>
       </c>
-      <c r="B170" s="9">
+      <c r="B170" s="7">
         <v>603</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A171" s="6">
+      <c r="A171" s="4">
         <v>43313</v>
       </c>
-      <c r="B171" s="9">
+      <c r="B171" s="7">
         <v>725</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A172" s="6">
+      <c r="A172" s="4">
         <v>43344</v>
       </c>
-      <c r="B172" s="9">
+      <c r="B172" s="7">
         <v>622</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A173" s="6">
+      <c r="A173" s="4">
         <v>43374</v>
       </c>
-      <c r="B173" s="9">
+      <c r="B173" s="7">
         <v>722</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A174" s="6">
+      <c r="A174" s="4">
         <v>43405</v>
       </c>
-      <c r="B174" s="9">
+      <c r="B174" s="7">
         <v>740</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A175" s="6">
+      <c r="A175" s="4">
         <v>43435</v>
       </c>
-      <c r="B175" s="9">
+      <c r="B175" s="7">
         <v>826</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A176" s="6">
+      <c r="A176" s="4">
         <v>43466</v>
       </c>
-      <c r="B176" s="4">
+      <c r="B176" s="3">
         <v>690</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A177" s="6">
+      <c r="A177" s="4">
         <v>43497</v>
       </c>
-      <c r="B177" s="4">
+      <c r="B177" s="3">
         <v>584</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A178" s="6">
+      <c r="A178" s="4">
         <v>43525</v>
       </c>
-      <c r="B178" s="4">
+      <c r="B178" s="3">
         <v>592</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A179" s="6">
+      <c r="A179" s="4">
         <v>43556</v>
       </c>
-      <c r="B179" s="4">
+      <c r="B179" s="3">
         <v>560</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A180" s="6">
+      <c r="A180" s="4">
         <v>43586</v>
       </c>
-      <c r="B180" s="4">
+      <c r="B180" s="3">
         <v>619</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A181" s="6">
+      <c r="A181" s="4">
         <v>43617</v>
       </c>
-      <c r="B181" s="4">
+      <c r="B181" s="3">
         <v>580</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A182" s="6">
+      <c r="A182" s="4">
         <v>43647</v>
       </c>
-      <c r="B182" s="4">
+      <c r="B182" s="3">
         <v>603</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A183" s="6">
+      <c r="A183" s="4">
         <v>43678</v>
       </c>
-      <c r="B183" s="4">
+      <c r="B183" s="3">
         <v>705</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A184" s="6">
+      <c r="A184" s="4">
         <v>43709</v>
       </c>
-      <c r="B184" s="4">
+      <c r="B184" s="3">
         <v>677</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A185" s="6">
+      <c r="A185" s="4">
         <v>43739</v>
       </c>
-      <c r="B185" s="4">
+      <c r="B185" s="3">
         <v>789</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A186" s="6">
+      <c r="A186" s="4">
         <v>43770</v>
       </c>
-      <c r="B186" s="4">
+      <c r="B186" s="3">
         <v>1146</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A187" s="6">
+      <c r="A187" s="4">
         <v>43800</v>
       </c>
-      <c r="B187" s="4">
+      <c r="B187" s="3">
         <v>826</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A188" s="6">
+      <c r="A188" s="4">
         <v>43831</v>
       </c>
-      <c r="B188" s="4">
+      <c r="B188" s="3">
         <v>1018</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A189" s="6">
+      <c r="A189" s="4">
         <v>43862</v>
       </c>
-      <c r="B189" s="4">
+      <c r="B189" s="3">
         <v>1466</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A190" s="6">
+      <c r="A190" s="4">
         <v>43891</v>
       </c>
-      <c r="B190" s="4">
+      <c r="B190" s="3">
         <v>4553</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A191" s="6">
+      <c r="A191" s="4">
         <v>43922</v>
       </c>
-      <c r="B191" s="4">
+      <c r="B191" s="3">
         <v>5129</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A192" s="6">
+      <c r="A192" s="4">
         <v>43952</v>
       </c>
-      <c r="B192" s="4">
+      <c r="B192" s="3">
         <v>3907</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A193" s="6">
+      <c r="A193" s="4">
         <v>43983</v>
       </c>
-      <c r="B193" s="4">
+      <c r="B193" s="3">
         <v>3373</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A194" s="6">
+      <c r="A194" s="4">
         <v>44013</v>
       </c>
-      <c r="B194" s="4">
+      <c r="B194" s="3">
         <v>2755</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A195" s="6">
+      <c r="A195" s="4">
         <v>44044</v>
       </c>
-      <c r="B195" s="4">
+      <c r="B195" s="3">
         <v>2813</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A196" s="6">
+      <c r="A196" s="4">
         <v>44075</v>
       </c>
-      <c r="B196" s="4">
+      <c r="B196" s="3">
         <v>1015</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A197" s="6">
+      <c r="A197" s="4">
         <v>44105</v>
       </c>
-      <c r="B197" s="4">
+      <c r="B197" s="3">
         <v>1029</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A198" s="6">
+      <c r="A198" s="4">
         <v>44136</v>
       </c>
-      <c r="B198" s="4">
+      <c r="B198" s="3">
         <v>1065</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A199" s="6">
+      <c r="A199" s="4">
         <v>44166</v>
       </c>
-      <c r="B199" s="4">
+      <c r="B199" s="3">
         <v>1062</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A200" s="6">
+      <c r="A200" s="4">
         <v>44197</v>
       </c>
-      <c r="B200" s="4">
+      <c r="B200" s="3">
         <v>1273</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A201" s="6">
+      <c r="A201" s="4">
         <v>44228</v>
       </c>
-      <c r="B201" s="4">
+      <c r="B201" s="3">
         <v>1226</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A202" s="6">
+      <c r="A202" s="4">
         <v>44256</v>
       </c>
-      <c r="B202" s="4">
+      <c r="B202" s="3">
         <v>1201</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A203" s="6">
+      <c r="A203" s="4">
         <v>44287</v>
       </c>
-      <c r="B203" s="4">
+      <c r="B203" s="3">
         <v>764</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A204" s="6">
+      <c r="A204" s="4">
         <v>44317</v>
       </c>
-      <c r="B204" s="4">
+      <c r="B204" s="3">
         <v>730</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A205" s="6">
+      <c r="A205" s="4">
         <v>44348</v>
       </c>
-      <c r="B205" s="4">
+      <c r="B205" s="3">
         <v>776</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A206" s="6">
+      <c r="A206" s="4">
         <v>44378</v>
       </c>
-      <c r="B206" s="4">
+      <c r="B206" s="3">
         <v>790</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A207" s="6">
+      <c r="A207" s="4">
         <v>44409</v>
       </c>
-      <c r="B207" s="4">
+      <c r="B207" s="3">
         <v>751</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A208" s="6">
+      <c r="A208" s="4">
         <v>44440</v>
       </c>
-      <c r="B208" s="4">
+      <c r="B208" s="3">
         <v>835</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A209" s="6">
+      <c r="A209" s="4">
         <v>44470</v>
       </c>
-      <c r="B209" s="4">
+      <c r="B209" s="3">
         <v>847</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A210" s="6">
+      <c r="A210" s="4">
         <v>44501</v>
       </c>
-      <c r="B210" s="4">
+      <c r="B210" s="3">
         <v>891</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A211" s="6">
+      <c r="A211" s="4">
         <v>44531</v>
       </c>
-      <c r="B211" s="4">
+      <c r="B211" s="3">
         <v>869</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A212" s="6">
+      <c r="A212" s="4">
         <v>44562</v>
       </c>
-      <c r="B212" s="4">
+      <c r="B212" s="3">
         <v>768</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A213" s="6">
+      <c r="A213" s="4">
         <v>44593</v>
       </c>
-      <c r="B213" s="4">
+      <c r="B213" s="3">
         <v>755</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A214" s="6">
+      <c r="A214" s="4">
         <v>44621</v>
       </c>
-      <c r="B214" s="4">
+      <c r="B214" s="3">
         <v>810</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A215" s="6">
+      <c r="A215" s="4">
         <v>44652</v>
       </c>
-      <c r="B215" s="4">
+      <c r="B215" s="3">
         <v>816</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A216" s="6">
+      <c r="A216" s="4">
         <v>44682</v>
       </c>
-      <c r="B216" s="4">
+      <c r="B216" s="3">
         <v>802</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A217" s="6">
+      <c r="A217" s="4">
         <v>44713</v>
       </c>
-      <c r="B217" s="4">
+      <c r="B217" s="3">
         <v>1165</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A218" s="6">
+      <c r="A218" s="4">
         <v>44743</v>
       </c>
-      <c r="B218" s="4">
+      <c r="B218" s="3">
         <v>1336</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A219" s="6">
+      <c r="A219" s="4">
         <v>44774</v>
       </c>
-      <c r="B219" s="4">
+      <c r="B219" s="3">
         <v>1550</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A220" s="6">
+      <c r="A220" s="4">
         <v>44805</v>
       </c>
-      <c r="B220" s="4">
+      <c r="B220" s="3">
         <v>1753</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A221" s="6">
+      <c r="A221" s="4">
         <v>44835</v>
       </c>
-      <c r="B221" s="4">
+      <c r="B221" s="3">
         <v>1570</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A222" s="6">
+      <c r="A222" s="4">
         <v>44866</v>
       </c>
-      <c r="B222" s="4">
+      <c r="B222" s="3">
         <v>1333</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A223" s="6">
+      <c r="A223" s="4">
         <v>44896</v>
       </c>
-      <c r="B223" s="4">
+      <c r="B223" s="3">
         <v>1250</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A224" s="6">
+      <c r="A224" s="4">
         <v>44927</v>
       </c>
-      <c r="B224" s="4">
+      <c r="B224" s="3">
         <v>1216</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A225" s="6">
+      <c r="A225" s="4">
         <v>44958</v>
       </c>
-      <c r="B225" s="4">
+      <c r="B225" s="3">
         <v>1765</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A226" s="6">
+      <c r="A226" s="4">
         <v>44986</v>
       </c>
-      <c r="B226" s="4">
+      <c r="B226" s="3">
         <v>1917</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A227" s="6">
+      <c r="A227" s="4">
         <v>45017</v>
       </c>
-      <c r="B227" s="4">
+      <c r="B227" s="3">
         <v>1757</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A228" s="6">
+      <c r="A228" s="4">
         <v>45047</v>
       </c>
-      <c r="B228" s="4">
+      <c r="B228" s="3">
         <v>1911</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A229" s="6">
+      <c r="A229" s="4">
         <v>45078</v>
       </c>
-      <c r="B229" s="4">
+      <c r="B229" s="3">
         <v>1922</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>